--- a/testData/HomeLoan.xlsx
+++ b/testData/HomeLoan.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="67">
   <si>
     <t>Year</t>
   </si>

--- a/testData/HomeLoan.xlsx
+++ b/testData/HomeLoan.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="67">
   <si>
     <t>Year</t>
   </si>
